--- a/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF1019-CF50-45E9-BF75-2D605CC228AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A3A55E-9D38-4882-9B83-5D58040671FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,6 +227,12 @@
   </si>
   <si>
     <t>4/19,20/2022</t>
+  </si>
+  <si>
+    <t>12/27-29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -607,6 +605,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,12 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2636,7 +2634,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3014,12 +3012,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A54" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3041,62 +3039,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3122,18 +3120,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3180,7 +3178,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.25</v>
+        <v>42.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3196,7 +3194,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="20"/>
@@ -3414,7 +3412,7 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="20"/>
@@ -3621,7 +3619,7 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="60">
+      <c r="K30" s="48">
         <v>44098</v>
       </c>
     </row>
@@ -3645,7 +3643,7 @@
       <c r="H31" s="38"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="60">
+      <c r="K31" s="48">
         <v>44106</v>
       </c>
     </row>
@@ -3711,12 +3709,12 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="60">
+      <c r="K34" s="48">
         <v>44182</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="20"/>
@@ -3731,7 +3729,7 @@
       <c r="H35" s="38"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="60"/>
+      <c r="K35" s="48"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
@@ -3753,7 +3751,7 @@
       <c r="H36" s="38"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="60">
+      <c r="K36" s="48">
         <v>44214</v>
       </c>
     </row>
@@ -4026,7 +4024,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="20"/>
@@ -4063,7 +4061,7 @@
       <c r="H51" s="38"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="60">
+      <c r="K51" s="48">
         <v>44568</v>
       </c>
     </row>
@@ -4083,7 +4081,7 @@
       <c r="H52" s="38"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="60">
+      <c r="K52" s="48">
         <v>44574</v>
       </c>
     </row>
@@ -4105,7 +4103,7 @@
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="48" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4127,7 +4125,7 @@
       <c r="H54" s="38"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="60">
+      <c r="K54" s="48">
         <v>44672</v>
       </c>
     </row>
@@ -4233,7 +4231,7 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="60">
+      <c r="K59" s="48">
         <v>44726</v>
       </c>
     </row>
@@ -4255,7 +4253,7 @@
       <c r="H60" s="38"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="60">
+      <c r="K60" s="48">
         <v>44672</v>
       </c>
     </row>
@@ -4341,7 +4339,7 @@
       <c r="H64" s="38"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="60">
+      <c r="K64" s="48">
         <v>44855</v>
       </c>
     </row>
@@ -4369,11 +4367,15 @@
       <c r="A66" s="39">
         <v>44896</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="38"/>
+      <c r="D66" s="38">
+        <v>3</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4383,22 +4385,22 @@
       <c r="H66" s="38"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="39">
-        <v>44927</v>
+      <c r="A67" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C67" s="13"/>
       <c r="D67" s="38"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H67" s="38"/>
       <c r="I67" s="9"/>
@@ -4406,15 +4408,19 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
+      <c r="A68" s="39">
+        <v>44927</v>
+      </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="38"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="38"/>
       <c r="I68" s="9"/>
@@ -5542,20 +5548,36 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="42"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="38"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="42"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="38"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="42"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5621,17 +5643,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5708,12 +5730,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">

--- a/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
+++ b/REGULAR/ACCOUNTING/MARASIGAN, GINALYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>7/18,19/2022</t>
+  </si>
+  <si>
+    <t>10/16,17/2023</t>
+  </si>
+  <si>
+    <t>10/20,23/2023</t>
+  </si>
+  <si>
+    <t>10/26,31/2023</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1139,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1182,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1246,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1306,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1372,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1435,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1533,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1592,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1657,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1700,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1775,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1961,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +2027,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2085,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2151,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2207,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2282,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2325,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2391,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2447,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2545,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2608,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2674,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K150" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3043,12 +3052,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K146"/>
+  <dimension ref="A2:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3211,7 +3220,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.968000000000004</v>
+        <v>45.468000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3221,7 +3230,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51</v>
+        <v>48.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4781,13 +4790,15 @@
         <v>45170</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="38"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="38"/>
       <c r="I82" s="9"/>
@@ -4798,27 +4809,35 @@
       <c r="A83" s="39">
         <v>45200</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="B83" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="38"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="38"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="48">
+        <v>45218</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="39">
-        <v>45231</v>
-      </c>
-      <c r="B84" s="20"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="38"/>
+      <c r="D84" s="38">
+        <v>2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -4828,13 +4847,15 @@
       <c r="H84" s="38"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="48" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B85" s="20"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="38"/>
       <c r="E85" s="9"/>
@@ -4843,16 +4864,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="38"/>
+      <c r="H85" s="38">
+        <v>2</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="48" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B86" s="20"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="38"/>
       <c r="E86" s="9"/>
@@ -4861,16 +4886,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="38"/>
+      <c r="H86" s="38">
+        <v>2</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B87" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="38"/>
       <c r="E87" s="9"/>
@@ -4879,18 +4910,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="38"/>
+      <c r="H87" s="38">
+        <v>1</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B88" s="20"/>
+      <c r="K87" s="48">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C88" s="13"/>
-      <c r="D88" s="38"/>
+      <c r="D88" s="38">
+        <v>1</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
@@ -4900,11 +4937,13 @@
       <c r="H88" s="38"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="48">
+        <v>45288</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
-        <v>45383</v>
+        <v>45261</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4922,7 +4961,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4940,7 +4979,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4958,7 +4997,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4976,7 +5015,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4994,7 +5033,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5012,7 +5051,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5030,7 +5069,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5048,7 +5087,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5066,7 +5105,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5084,7 +5123,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5102,7 +5141,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5120,7 +5159,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5138,7 +5177,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5156,7 +5195,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5174,7 +5213,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5192,7 +5231,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5210,7 +5249,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5228,7 +5267,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5246,7 +5285,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5264,7 +5303,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5282,7 +5321,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5300,7 +5339,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5318,7 +5357,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5336,7 +5375,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5354,7 +5393,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5372,7 +5411,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5390,7 +5429,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5408,7 +5447,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5426,7 +5465,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5444,7 +5483,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5462,7 +5501,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5480,7 +5519,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5498,7 +5537,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
-        <v>46388</v>
+        <v>46266</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5516,7 +5555,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
-        <v>46419</v>
+        <v>46296</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5534,7 +5573,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
-        <v>46447</v>
+        <v>46327</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5552,7 +5591,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
-        <v>46478</v>
+        <v>46357</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5570,7 +5609,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
-        <v>46508</v>
+        <v>46388</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5588,7 +5627,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
-        <v>46539</v>
+        <v>46419</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5606,7 +5645,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
-        <v>46569</v>
+        <v>46447</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5623,7 +5662,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
+      <c r="A129" s="39">
+        <v>46478</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="38"/>
@@ -5639,7 +5680,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
+      <c r="A130" s="39">
+        <v>46508</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="38"/>
@@ -5655,7 +5698,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
+      <c r="A131" s="39">
+        <v>46539</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="38"/>
@@ -5671,7 +5716,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
+      <c r="A132" s="39">
+        <v>46569</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="38"/>
@@ -5895,20 +5942,84 @@
       <c r="K145" s="20"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="42"/>
+      <c r="A146" s="39"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="38"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="42"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="38"/>
       <c r="I146" s="9"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="15"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="39"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="38"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="39"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="38"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="39"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="38"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="42"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6076,7 +6187,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>96.968000000000004</v>
+        <v>93.968000000000004</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
